--- a/4_semestr/VichMath/Lab3/Ручной расчёт.xlsx
+++ b/4_semestr/VichMath/Lab3/Ручной расчёт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshen\Documents\GitHub\labs\4_semestr\VichMath\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A15E06-863C-4CE7-B587-1C5C0874D250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A758A15-2595-47B0-B2EF-1103AF9CEA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E5A235-2BBF-4E30-B98F-B7E832E094EF}"/>
   </bookViews>
@@ -158,10 +158,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,10 +178,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +498,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,592 +510,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
         <v>3</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6">
         <v>4</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
         <v>5</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
         <v>6</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="9">
         <v>7</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
         <f>B4+B7</f>
         <v>3.57002</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <f>D4+D7</f>
         <v>3.8641000000000001</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <f>F4+F7</f>
         <v>3.58745</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
         <f>H4+H7</f>
         <v>3.7057099999999998</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <f>J4+J7</f>
         <v>3.5975099999999998</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
         <f>L4+L7</f>
         <v>3.5992389999999999</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="9">
         <f>N4+N7</f>
-        <v>3.5992374186217324</v>
+        <v>2.9675592313050299</v>
       </c>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
         <f>B5+B8</f>
         <v>0.96469000000000005</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <f>D5+D8</f>
         <v>0.92849000000000004</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
         <f>F5+F8</f>
         <v>0.94297000000000009</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
         <f>H5+H8</f>
         <v>0.92829000000000006</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <f>J5+J8</f>
         <v>0.9304070000000001</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
         <f>L5+L8</f>
         <v>0.92824700000000004</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="9">
         <f>N5+N8</f>
-        <v>0.92824769625404846</v>
+        <v>0.87867192127547811</v>
       </c>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <f>ABS(D4-B4)</f>
         <v>0.42998000000000003</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <f>ABS(F4-D4)</f>
         <v>0.29408000000000012</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
         <f>ABS(H4-F4)</f>
         <v>0.27665000000000006</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <f>ABS(J4-H4)</f>
         <v>0.11825999999999981</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <f>ABS(L4-J4)</f>
         <v>0.10820000000000007</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
         <f>ABS(N4-L4)</f>
         <v>1.7290000000000916E-3</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="9">
         <f>ABS(P4-N4)</f>
-        <v>1.5813782674456434E-6</v>
+        <v>0.63167976869497</v>
       </c>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>-0.42997999999999997</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>0.29408000000000001</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>-0.27665000000000001</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <v>0.11826</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
         <v>-0.1082</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>1.7290000000000001E-3</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2">
+      <c r="M7" s="6"/>
+      <c r="N7" s="4">
         <f>Лист2!C27</f>
-        <v>-1.581378267310458E-6</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+        <v>-0.63167976869496978</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6">
         <v>-3.5310000000000001E-2</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>-3.6200000000000003E-2</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>1.448E-2</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <v>-1.468E-2</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6">
         <v>2.117E-3</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>-2.16E-3</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2">
+      <c r="M8" s="6"/>
+      <c r="N8" s="4">
         <f>Лист2!C28</f>
-        <v>6.9625404841953698E-7</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+        <v>-4.9575078724521889E-2</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <f>-1*(COS(B4-1)/2 + B5 -0.5)</f>
         <v>-5.0037516997772924E-3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <f>-1*(COS(D4-1)/2 + D5 -0.5)</f>
         <v>-4.4164359938799969E-2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <f>-1*(COS(F4-1)/2 + F5 -0.5)</f>
         <v>5.2382667977367348E-2</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <f>-1*(COS(H4-1)/2 + H5 -0.5)</f>
         <v>-1.7794049597655626E-2</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
         <f>-1*(COS(J4-1)/2 + J5 -0.5)</f>
         <v>2.4958864841577721E-2</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <f>-1*(COS(L4-1)/2 + L5 -0.5)</f>
         <v>-2.60575005854502E-3</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
         <f>-1*(COS(N4-1)/2 + N5 -0.5)</f>
         <v>1.1043708657565432E-6</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <f>-1*(B4-COS(B5) - 3)</f>
         <v>-0.45969769413186023</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
         <f>-1*(D4-COS(D5) - 3)</f>
         <v>-3.4831588794448365E-4</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <f>-1*(F4-COS(F5) - 3)</f>
         <v>-0.26505625362245899</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>-1*(H4-COS(H5) - 3)</f>
         <v>-6.3020229712051901E-5</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
         <f>-1*(J4-COS(J5) - 3)</f>
         <v>-0.10650612234479606</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <f>-1*(L4-COS(L5) - 3)</f>
         <v>-2.3265349335943597E-6</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
         <f>-1*(N4-COS(N5) - 3)</f>
         <v>-6.9725042006751892E-7</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <f>-SIN(B4-1)/2</f>
         <v>-7.0560004029933607E-2</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <f>-SIN(D4-1)/2</f>
         <v>-0.27047769972978913</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <f>-SIN(F4-1)/2</f>
         <v>-0.1369725417458863</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
         <f>-SIN(H4-1)/2</f>
         <v>-0.26310722376906176</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
         <f>-SIN(J4-1)/2</f>
         <v>-0.21110534460269162</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
         <f>-SIN(L4-1)/2</f>
         <v>-0.25881671226667075</v>
       </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
         <f>-SIN(N4-1)/2</f>
         <v>-0.25807665741550517</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <f>SIN(B5)</f>
         <v>0.8414709848078965</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <f>SIN(D5)</f>
         <v>0.82187235768149203</v>
       </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
         <f>SIN(F5)</f>
         <v>0.80071629802693556</v>
       </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
         <f>SIN(H5)</f>
         <v>0.80930620657223373</v>
       </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
         <f>SIN(J5)</f>
         <v>0.80059647326413286</v>
       </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
         <f>SIN(L5)</f>
         <v>0.8018631929140807</v>
       </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
         <f>SIN(N5)</f>
         <v>0.80057070675725017</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="N9:O9"/>
@@ -1112,58 +1164,6 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,49 +1192,49 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>'Лист1 (2)'!O12</f>
-        <v>0.80057070675725017</v>
+        <f>'Лист1 (2)'!C12</f>
+        <v>0.8414709848078965</v>
       </c>
       <c r="E4" s="1">
-        <f>'Лист1 (2)'!N10</f>
-        <v>-6.9725042006751892E-7</v>
+        <f>'Лист1 (2)'!B10</f>
+        <v>-0.45969769413186023</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
@@ -1242,37 +1242,37 @@
       </c>
       <c r="I4" s="1">
         <f>-D4/$C$4</f>
-        <v>-0.80057070675725017</v>
+        <v>-0.8414709848078965</v>
       </c>
       <c r="J4" s="1">
         <f>E4/C4</f>
-        <v>-6.9725042006751892E-7</v>
+        <v>-0.45969769413186023</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <f>'Лист1 (2)'!N11</f>
-        <v>-0.25807665741550517</v>
+        <f>'Лист1 (2)'!B11</f>
+        <v>-7.0560004029933607E-2</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <f>'Лист1 (2)'!N9</f>
-        <v>1.1043708657565432E-6</v>
+        <f>'Лист1 (2)'!B9</f>
+        <v>-5.0037516997772924E-3</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <f>-C5/$D$5</f>
-        <v>0.25807665741550517</v>
+        <v>7.0560004029933607E-2</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
         <f>E5/D5</f>
-        <v>1.1043708657565432E-6</v>
+        <v>-5.0037516997772924E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1286,34 +1286,34 @@
       <c r="J6" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1450,30 +1450,30 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1588,51 +1588,51 @@
       </c>
       <c r="B27" s="1">
         <f>I4*J5+J4</f>
-        <v>-1.5813773845883509E-6</v>
+        <v>-0.45548718226131446</v>
       </c>
       <c r="C27" s="1">
         <f>$I4*B28+$J4</f>
-        <v>-1.581378267310458E-6</v>
+        <v>-0.63167976869496978</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ref="D27:M27" si="0">$I4*C28+$J4</f>
-        <v>-1.2546510156933442E-6</v>
+        <v>-0.41798170381560779</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3221556796605945E-6</v>
+        <v>-0.43066985462148299</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3082086347331284E-6</v>
+        <v>-0.42991650586765356</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3110902143274383E-6</v>
+        <v>-0.42996123534427938</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3104948551670191E-6</v>
+        <v>-0.42995857956756367</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3106178614968095E-6</v>
+        <v>-0.42995873725217115</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3105924473297413E-6</v>
+        <v>-0.42995872788977435</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.310597698115525E-6</v>
+        <v>-0.42995872844565913</v>
       </c>
       <c r="L27" s="1">
         <f>$I4*K28+$J4</f>
-        <v>-1.3105966132579621E-6</v>
+        <v>-0.42995872841265392</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3105968373988776E-6</v>
+        <v>-0.42995872841461358</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1641,51 +1641,51 @@
       </c>
       <c r="B28" s="1">
         <f>B27*J4+J5</f>
-        <v>1.104371968372589E-6</v>
+        <v>0.20438265569236733</v>
       </c>
       <c r="C28" s="1">
         <f>$H5*C27+$J5</f>
-        <v>6.9625404841953698E-7</v>
+        <v>-4.9575078724521889E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ref="D28:M28" si="1">$H5*D27+$J5</f>
-        <v>7.8057472540343639E-7</v>
+        <v>-3.4496542405445092E-2</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>7.6315334736681155E-7</v>
+        <v>-3.5391818377440057E-2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>7.6675275410251591E-7</v>
+        <v>-3.5338662086333905E-2</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>7.6600908567273959E-7</v>
+        <v>-3.5341818198384875E-2</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>7.6616273397482236E-7</v>
+        <v>-3.5341630806769116E-2</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>7.6613098891238909E-7</v>
+        <v>-3.5341641932995653E-2</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="1"/>
-        <v>7.6613754771567709E-7</v>
+        <v>-3.5341641272384899E-2</v>
       </c>
       <c r="K28" s="1">
         <f>$H5*K27+$J5</f>
-        <v>7.6613619261043309E-7</v>
+        <v>-3.5341641311608135E-2</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="1"/>
-        <v>7.6613647258684678E-7</v>
+        <v>-3.5341641309279283E-2</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="1"/>
-        <v>7.6613641474130854E-7</v>
+        <v>-3.5341641309417554E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1725,47 +1725,47 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <f>ABS(SUM(B27:B28)-SUM(C27:C28))</f>
-        <v>4.0811880267515903E-7</v>
+        <v>0.43015032085054461</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:L31" si="2">ABS(SUM(C27:C28)-SUM(D27:D28))</f>
-        <v>4.1104792860101315E-7</v>
+        <v>0.22877660119843884</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="2"/>
-        <v>8.4926042003875119E-8</v>
+        <v>1.3583426777870167E-2</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>1.7546451663170455E-8</v>
+        <v>8.0650504493556818E-4</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="2"/>
-        <v>3.6252480240861832E-9</v>
+        <v>4.7885588676799262E-5</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>7.4900746250196031E-10</v>
+        <v>2.8431683314900091E-6</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>1.5475139222367562E-10</v>
+        <v>1.6881083403363917E-7</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>3.1972970356220409E-11</v>
+        <v>1.0023007590564958E-8</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="2"/>
-        <v>6.6058910277635709E-12</v>
+        <v>5.9510807393081677E-10</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="2"/>
-        <v>1.3648339766471091E-12</v>
+        <v>3.5334069004022695E-11</v>
       </c>
       <c r="M31" s="1">
         <f>ABS(SUM(L27:L28)-SUM(M27:M28))</f>
-        <v>2.8198645378975308E-13</v>
+        <v>2.0978774273316958E-12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1775,47 +1775,47 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1">
         <f>IF(C31&lt;=$B$1,C31,0)</f>
-        <v>4.0811880267515903E-7</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ref="D32:M32" si="3">IF(D31&lt;=$B$1,D31,0)</f>
-        <v>4.1104792860101315E-7</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="3"/>
-        <v>8.4926042003875119E-8</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="3"/>
-        <v>1.7546451663170455E-8</v>
-      </c>
-      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="3"/>
-        <v>3.6252480240861832E-9</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="3"/>
-        <v>7.4900746250196031E-10</v>
+        <v>2.8431683314900091E-6</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>1.5475139222367562E-10</v>
+        <v>1.6881083403363917E-7</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="3"/>
-        <v>3.1972970356220409E-11</v>
+        <v>1.0023007590564958E-8</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>6.6058910277635709E-12</v>
+        <v>5.9510807393081677E-10</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="3"/>
-        <v>1.3648339766471091E-12</v>
+        <v>3.5334069004022695E-11</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="3"/>
-        <v>2.8198645378975308E-13</v>
+        <v>2.0978774273316958E-12</v>
       </c>
     </row>
   </sheetData>

--- a/4_semestr/VichMath/Lab3/Ручной расчёт.xlsx
+++ b/4_semestr/VichMath/Lab3/Ручной расчёт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshen\Documents\GitHub\labs\4_semestr\VichMath\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A758A15-2595-47B0-B2EF-1103AF9CEA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF50DA-3D99-4F9D-9B28-79423FC244A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E5A235-2BBF-4E30-B98F-B7E832E094EF}"/>
   </bookViews>
@@ -172,14 +172,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93501F90-6FAB-4F82-AFE2-2BBA8546C40E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,10 +581,10 @@
         <v>6</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="9">
+      <c r="P3" s="7">
         <v>7</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -624,11 +624,11 @@
         <v>3.5992389999999999</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <f>N4+N7</f>
         <v>2.9675592313050299</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -668,11 +668,11 @@
         <v>0.92824700000000004</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <f>N5+N8</f>
         <v>0.87867192127547811</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -710,14 +710,14 @@
         <v>1.7290000000000916E-3</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <f>ABS(P4-N4)</f>
         <v>0.63167976869497</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
@@ -753,7 +753,7 @@
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="6">
         <v>-3.5310000000000001E-2</v>
       </c>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,13 +1192,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="4"/>
@@ -1286,7 +1286,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1450,7 +1450,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="4"/>
